--- a/biology/Botanique/Jardin_des_Prairiales/Jardin_des_Prairiales.xlsx
+++ b/biology/Botanique/Jardin_des_Prairiales/Jardin_des_Prairiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin des Prairiales au château de La Grange a été inauguré en 2009 dans la ville mosellane de Manom. Il fait partie du réseau transfrontalier Jardins sans limites qui s'étend en Moselle, en Sarre et au Luxembourg.
@@ -512,7 +524,9 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entourant le château du XVIIIe siècle, encore habité par ses propriétaires, ce jardin de 30 000 m2 a été créé par le paysagiste Franck Neau. Comme il ne reste aucune trace du jardin classique d'origine, le créateur a conservé l’esprit et la symétrie du lieu tout en s’adaptant au contexte actuel. C’est un jardin contemporain qui fait néanmoins quelques clins d’œil au passé.
 La vieille serre a laissé la place à un édifice aux formes courbes, contrastant avec celles du château. À l’arrière, la pelouse centrale est encadrée par deux larges bandes de prairie semées de fleurs de tous pays : des prairiales, qui donnent leur nom au jardin. Celui-ci jongle à la fois avec le passé et le futur, entre chambres végétales, sous-bois, douves et cours classiques. Il possède une collection de buis parmi les plus riches d'Europe.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>CDT Moselle, « Dossier de presse Jardins sans limites », sur www.moselle-tourisme.com, CDT Moselle, 2009 (consulté le 19 août 2009)
 CDT Moselle, « Jardins sans Limites 2011 », sur www.moselle-tourisme.com, CDT Moselle, 2011 (consulté le 7 juin 2011)</t>
